--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,37</t>
+          <t>1,65; 7,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 12,57</t>
+          <t>5,38; 12,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,68</t>
+          <t>0,12; 0,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,1</t>
+          <t>1,19; 6,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,9</t>
+          <t>5,17; 12,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,9</t>
+          <t>1,38; 7,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,61</t>
+          <t>1,99; 5,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,15</t>
+          <t>6,19; 10,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,86</t>
+          <t>0,79; 4,27</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,2</t>
+          <t>3,78; 8,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,86</t>
+          <t>5,05; 9,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,62</t>
+          <t>4,95; 9,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,86</t>
+          <t>2,67; 8,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,58</t>
+          <t>5,93; 10,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,85</t>
+          <t>3,72; 7,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,18</t>
+          <t>4,82; 9,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,17</t>
+          <t>1,9; 5,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,49</t>
+          <t>5,38; 8,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,97</t>
+          <t>4,68; 7,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,62</t>
+          <t>5,3; 8,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,54</t>
+          <t>2,63; 5,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,26</t>
+          <t>4,73; 11,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,19</t>
+          <t>2,03; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,92</t>
+          <t>0,58; 3,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,35</t>
+          <t>2,57; 7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,85</t>
+          <t>4,22; 10,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,48</t>
+          <t>2,48; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,9</t>
+          <t>2,51; 6,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,54</t>
+          <t>2,46; 6,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,44</t>
+          <t>5,28; 9,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,8</t>
+          <t>2,81; 5,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,45</t>
+          <t>1,83; 4,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,25</t>
+          <t>2,86; 5,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,87</t>
+          <t>1,05; 5,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,57</t>
+          <t>3,93; 7,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,67</t>
+          <t>5,36; 11,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,33</t>
+          <t>0,0; 0,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,94</t>
+          <t>1,93; 5,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,28</t>
+          <t>3,71; 7,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,12</t>
+          <t>3,5; 8,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,34</t>
+          <t>0,31; 2,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,64</t>
+          <t>1,82; 4,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,75</t>
+          <t>4,29; 6,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,6</t>
+          <t>4,9; 8,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,24</t>
+          <t>0,2; 1,3</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,13</t>
+          <t>1,35; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,1</t>
+          <t>1,88; 7,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,64</t>
+          <t>1,0; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,37</t>
+          <t>2,57; 9,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,7</t>
+          <t>3,45; 9,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,27</t>
+          <t>1,59; 6,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,21</t>
+          <t>0,27; 4,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,94</t>
+          <t>2,52; 6,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,18</t>
+          <t>3,32; 7,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,1</t>
+          <t>1,76; 4,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,05</t>
+          <t>0,14; 2,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,74</t>
+          <t>0,38; 4,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,17</t>
+          <t>0,73; 3,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,02</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,67</t>
+          <t>0,93; 4,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,64</t>
+          <t>1,43; 5,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,33</t>
+          <t>2,07; 6,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,23</t>
+          <t>0,93; 4,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,22</t>
+          <t>1,29; 4,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,53</t>
+          <t>1,67; 4,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,9</t>
+          <t>0,33; 1,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,37</t>
+          <t>1,2; 3,46</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,25</t>
+          <t>3,43; 7,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,56</t>
+          <t>3,22; 6,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,8</t>
+          <t>1,96; 4,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,01</t>
+          <t>2,54; 5,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,24</t>
+          <t>6,37; 11,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,6</t>
+          <t>6,91; 11,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,75</t>
+          <t>2,62; 5,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,63</t>
+          <t>2,29; 5,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,37</t>
+          <t>5,5; 8,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,57</t>
+          <t>5,62; 8,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,53</t>
+          <t>2,59; 4,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,24</t>
+          <t>2,78; 5,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,86</t>
+          <t>4,51; 8,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,14</t>
+          <t>3,08; 6,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,31</t>
+          <t>1,71; 4,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,33</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,24</t>
+          <t>4,09; 7,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,37</t>
+          <t>4,96; 8,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,61</t>
+          <t>2,72; 5,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,22</t>
+          <t>0,79; 2,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,89</t>
+          <t>4,56; 7,11</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,75</t>
+          <t>4,52; 6,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,45</t>
+          <t>2,56; 4,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,94</t>
+          <t>0,72; 1,85</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,13; 5,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,09; 5,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,61; 5,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,96</t>
+          <t>1,81; 3,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,86; 5,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,11</t>
+          <t>2,01; 3,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,83; 6,03</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,97; 6,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,95; 4,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,83</t>
+          <t>2,06; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,42</t>
+          <t>1,96; 7,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,72</t>
+          <t>5,61; 12,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,34</t>
+          <t>1,2; 5,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,07</t>
+          <t>5,27; 12,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,53</t>
+          <t>2,04; 5,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,88</t>
+          <t>6,12; 11,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,11</t>
+          <t>3,81; 7,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,88</t>
+          <t>4,79; 9,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,57</t>
+          <t>4,82; 9,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,73</t>
+          <t>6,01; 10,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,56</t>
+          <t>3,68; 7,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,26</t>
+          <t>4,91; 9,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,43</t>
+          <t>5,43; 8,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,76</t>
+          <t>4,8; 7,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,32</t>
+          <t>5,43; 8,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,23</t>
+          <t>4,82; 10,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,04</t>
+          <t>1,9; 5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,75</t>
+          <t>0,57; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,19</t>
+          <t>4,36; 10,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,49</t>
+          <t>2,41; 7,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,74</t>
+          <t>2,34; 6,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,46</t>
+          <t>5,28; 9,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,86</t>
+          <t>2,66; 5,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,57</t>
+          <t>1,91; 4,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,0</t>
+          <t>0,82; 4,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,67</t>
+          <t>4,08; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,28</t>
+          <t>5,14; 11,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,85</t>
+          <t>2,05; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,41</t>
+          <t>3,46; 7,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,15</t>
+          <t>3,31; 7,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,52</t>
+          <t>1,84; 4,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,84</t>
+          <t>4,23; 6,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,95</t>
+          <t>4,99; 8,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,0</t>
+          <t>1,26; 6,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,53</t>
+          <t>1,85; 6,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,04</t>
+          <t>1,02; 5,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,52</t>
+          <t>2,78; 9,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,9</t>
+          <t>3,52; 10,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,21</t>
+          <t>1,28; 5,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,63</t>
+          <t>2,57; 7,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,31</t>
+          <t>3,17; 7,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,88</t>
+          <t>1,67; 4,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,55</t>
+          <t>0,38; 4,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,97</t>
+          <t>0,74; 4,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,36; 2,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,85</t>
+          <t>1,43; 5,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,54</t>
+          <t>2,07; 6,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,04</t>
+          <t>1,4; 3,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,66</t>
+          <t>1,76; 4,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,95</t>
+          <t>0,34; 1,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,29</t>
+          <t>3,47; 7,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,97</t>
+          <t>3,19; 6,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,7</t>
+          <t>1,97; 4,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,22</t>
+          <t>6,27; 11,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,74</t>
+          <t>6,86; 11,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,45</t>
+          <t>2,5; 5,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,54</t>
+          <t>5,45; 8,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,6</t>
+          <t>5,57; 8,44</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,77</t>
+          <t>2,57; 4,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,06</t>
+          <t>4,38; 7,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,1</t>
+          <t>3,2; 6,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,13</t>
+          <t>1,71; 4,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,43</t>
+          <t>3,96; 7,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,48</t>
+          <t>4,79; 8,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,57</t>
+          <t>2,71; 5,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,11</t>
+          <t>4,49; 7,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,87</t>
+          <t>4,31; 6,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,35</t>
+          <t>2,56; 4,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,74</t>
+          <t>4,08; 5,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,53</t>
+          <t>4,04; 5,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,04</t>
+          <t>3,63; 5,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,18; 6,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,4; 6,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,22</t>
+          <t>3,85; 5,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,03</t>
+          <t>4,82; 6,02</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,97; 6,03</t>
+          <t>5,0; 6,09</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,98</t>
+          <t>3,92; 4,92</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,2</t>
+          <t>1,96; 7,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,81</t>
+          <t>5,45; 12,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,67</t>
+          <t>0,12; 0,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,86</t>
+          <t>1,05; 6,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,24</t>
+          <t>5,42; 11,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,03</t>
+          <t>1,3; 6,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,71</t>
+          <t>2,04; 5,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,05</t>
+          <t>6,09; 11,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,27</t>
+          <t>0,81; 3,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,9</t>
+          <t>3,91; 8,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,75</t>
+          <t>4,87; 9,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,74</t>
+          <t>4,83; 9,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,32</t>
+          <t>2,81; 7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,77</t>
+          <t>6,01; 10,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,79</t>
+          <t>3,91; 7,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,44</t>
+          <t>4,67; 9,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,24</t>
+          <t>1,98; 5,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,55</t>
+          <t>5,38; 8,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,96</t>
+          <t>4,72; 7,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,54</t>
+          <t>5,33; 8,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,62</t>
+          <t>2,63; 5,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,88</t>
+          <t>4,84; 11,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,86</t>
+          <t>1,79; 6,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,85</t>
+          <t>0,57; 3,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,85</t>
+          <t>2,26; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,04</t>
+          <t>4,27; 9,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,14</t>
+          <t>2,67; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,77</t>
+          <t>2,54; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,71</t>
+          <t>2,3; 6,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,4</t>
+          <t>5,21; 9,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,75</t>
+          <t>2,69; 5,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,52</t>
+          <t>1,87; 4,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,94</t>
+          <t>2,76; 6,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,82</t>
+          <t>1,12; 4,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,57</t>
+          <t>3,97; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,5</t>
+          <t>5,34; 11,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,37</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,06</t>
+          <t>1,96; 5,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,06</t>
+          <t>3,69; 7,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,75</t>
+          <t>3,28; 8,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,16</t>
+          <t>0,27; 2,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,5</t>
+          <t>1,93; 4,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,76</t>
+          <t>4,23; 6,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,66</t>
+          <t>4,83; 8,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,3</t>
+          <t>0,18; 1,24</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,85</t>
+          <t>1,37; 7,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,93</t>
+          <t>1,66; 7,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,71</t>
+          <t>0,9; 5,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,25</t>
+          <t>2,61; 9,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,2</t>
+          <t>3,55; 9,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,67</t>
+          <t>1,6; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,63</t>
+          <t>0,24; 4,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,09</t>
+          <t>2,54; 6,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,22</t>
+          <t>3,32; 7,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,9</t>
+          <t>1,72; 5,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,05</t>
+          <t>0,13; 2,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,58</t>
+          <t>0,65; 4,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,24</t>
+          <t>0,72; 4,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,98</t>
+          <t>0,36; 3,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,79</t>
+          <t>0,92; 4,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,64</t>
+          <t>1,45; 5,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,49</t>
+          <t>2,06; 6,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,63</t>
+          <t>0,94; 4,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,92</t>
+          <t>1,41; 4,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,62</t>
+          <t>1,75; 4,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,95</t>
+          <t>0,35; 1,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,46</t>
+          <t>1,19; 3,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,17</t>
+          <t>3,58; 7,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,64</t>
+          <t>3,07; 6,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,96</t>
+          <t>1,89; 4,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,79</t>
+          <t>2,65; 6,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,22</t>
+          <t>6,51; 11,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,48</t>
+          <t>7,12; 11,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,46</t>
+          <t>2,5; 5,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,64</t>
+          <t>2,35; 5,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,44</t>
+          <t>5,22; 8,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,44</t>
+          <t>5,71; 8,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,71</t>
+          <t>2,5; 4,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,34</t>
+          <t>2,81; 5,24</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,89</t>
+          <t>4,28; 7,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,05</t>
+          <t>3,02; 6,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,15</t>
+          <t>1,76; 4,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,36</t>
+          <t>0,41; 2,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,31</t>
+          <t>3,9; 7,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,5</t>
+          <t>4,84; 8,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,49</t>
+          <t>2,79; 5,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,24</t>
+          <t>0,78; 2,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,0</t>
+          <t>4,53; 6,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,68</t>
+          <t>4,37; 6,75</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,43</t>
+          <t>2,47; 4,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,85</t>
+          <t>0,73; 1,94</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,64</t>
+          <t>4,08; 5,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,52</t>
+          <t>4,1; 5,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,05</t>
+          <t>3,6; 5,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,01</t>
+          <t>1,83; 2,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,86</t>
+          <t>5,18; 6,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,99</t>
+          <t>5,45; 7,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,26</t>
+          <t>3,85; 5,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,04</t>
+          <t>2,01; 3,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,02</t>
+          <t>4,81; 5,94</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,09</t>
+          <t>4,95; 6,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,92</t>
+          <t>3,91; 4,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,85</t>
+          <t>2,06; 2,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,68</t>
+          <t>0,1; 0,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,67; 11,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,9</t>
+          <t>1,46; 9,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,49; 10,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,86</t>
+          <t>0,82; 5,17</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,86</t>
+          <t>2,93; 9,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,17</t>
+          <t>2,01; 5,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,54</t>
+          <t>2,7; 6,04</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,35</t>
+          <t>2,3; 7,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,54</t>
+          <t>2,33; 6,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,25</t>
+          <t>2,78; 6,38</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,57</t>
+          <t>2,38; 6,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,33</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,28</t>
+          <t>1,89; 5,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,34</t>
+          <t>0,23; 2,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,75</t>
+          <t>2,57; 5,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,24</t>
+          <t>0,16; 1,15</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,21</t>
+          <t>0,21; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,05</t>
+          <t>0,12; 2,11</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,67</t>
+          <t>0,94; 4,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,23</t>
+          <t>0,98; 4,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,37</t>
+          <t>1,2; 3,38</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,01</t>
+          <t>2,56; 5,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,63</t>
+          <t>1,48; 4,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,24</t>
+          <t>2,27; 4,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,33</t>
+          <t>0,23; 1,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,22</t>
+          <t>0,8; 2,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,94</t>
+          <t>0,55; 1,71</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,96</t>
+          <t>1,66; 2,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,11</t>
+          <t>1,9; 3,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,83</t>
+          <t>1,95; 2,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,37</t>
+          <t>1,86; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,15</t>
+          <t>4,62; 10,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 12,57</t>
+          <t>5,73; 12,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,6</t>
+          <t>0,11; 0,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,1</t>
+          <t>1,09; 6,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,07</t>
+          <t>4,96; 11,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,9</t>
+          <t>5,39; 11,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 9,69</t>
+          <t>1,5; 10,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,61</t>
+          <t>2,03; 5,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,1</t>
+          <t>5,52; 9,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,15</t>
+          <t>6,02; 11,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,17</t>
+          <t>0,86; 5,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,2</t>
+          <t>3,7; 7,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,86</t>
+          <t>5,07; 9,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,62</t>
+          <t>4,87; 9,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,13</t>
+          <t>2,93; 8,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,58</t>
+          <t>5,75; 10,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,85</t>
+          <t>3,73; 7,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,18</t>
+          <t>4,45; 9,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,14</t>
+          <t>2,06; 5,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,49</t>
+          <t>5,28; 8,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,97</t>
+          <t>4,77; 7,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,62</t>
+          <t>5,27; 8,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,04</t>
+          <t>2,78; 6,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,26</t>
+          <t>4,64; 11,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,19</t>
+          <t>1,82; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,92</t>
+          <t>0,58; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,59</t>
+          <t>2,34; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,85</t>
+          <t>4,32; 9,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,48</t>
+          <t>2,38; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,9</t>
+          <t>2,37; 7,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,6</t>
+          <t>2,21; 6,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,44</t>
+          <t>5,23; 9,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,8</t>
+          <t>2,63; 5,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,45</t>
+          <t>1,89; 4,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,38</t>
+          <t>2,83; 6,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,87</t>
+          <t>0,94; 4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,96</t>
+          <t>2,51; 6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,67</t>
+          <t>5,49; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,35</t>
+          <t>0,0; 0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,94</t>
+          <t>1,91; 6,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,94</t>
+          <t>1,82; 5,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,12</t>
+          <t>3,28; 7,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,18</t>
+          <t>0,22; 2,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,64</t>
+          <t>1,73; 4,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,41</t>
+          <t>2,57; 5,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,6</t>
+          <t>4,79; 8,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,15</t>
+          <t>0,16; 1,29</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,13</t>
+          <t>1,35; 7,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,1</t>
+          <t>1,89; 7,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,64</t>
+          <t>1,28; 6,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,37</t>
+          <t>2,81; 9,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,7</t>
+          <t>3,42; 9,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,27</t>
+          <t>1,58; 6,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,1</t>
+          <t>0,19; 3,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,94</t>
+          <t>2,44; 6,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,18</t>
+          <t>3,23; 7,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,1</t>
+          <t>1,67; 5,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,11</t>
+          <t>0,13; 2,49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,74</t>
+          <t>0,39; 4,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,17</t>
+          <t>0,72; 4,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,02</t>
+          <t>0,37; 3,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,63</t>
+          <t>0,93; 3,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,64</t>
+          <t>1,47; 5,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,33</t>
+          <t>2,06; 6,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,3</t>
+          <t>0,91; 4,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,22</t>
+          <t>1,41; 4,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,53</t>
+          <t>1,66; 4,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,9</t>
+          <t>0,34; 1,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,38</t>
+          <t>1,16; 3,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,25</t>
+          <t>3,54; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,56</t>
+          <t>3,16; 6,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,8</t>
+          <t>1,98; 4,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,88</t>
+          <t>2,54; 5,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,24</t>
+          <t>6,52; 11,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,6</t>
+          <t>7,16; 11,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,75</t>
+          <t>2,54; 5,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,96</t>
+          <t>1,59; 5,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,37</t>
+          <t>5,35; 8,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,57</t>
+          <t>5,7; 8,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,53</t>
+          <t>2,57; 4,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,95</t>
+          <t>2,3; 4,89</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,86</t>
+          <t>4,31; 7,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,14</t>
+          <t>3,09; 6,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,31</t>
+          <t>1,86; 4,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,88</t>
+          <t>0,2; 1,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,24</t>
+          <t>3,88; 7,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,37</t>
+          <t>4,88; 8,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,61</t>
+          <t>2,82; 5,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,23</t>
+          <t>0,86; 2,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,89</t>
+          <t>4,48; 6,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,75</t>
+          <t>4,43; 6,79</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,45</t>
+          <t>2,5; 4,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,71</t>
+          <t>0,56; 1,67</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,04; 5,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,51</t>
+          <t>4,11; 5,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,08</t>
+          <t>3,63; 5,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,98</t>
+          <t>1,65; 3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,17; 6,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,07</t>
+          <t>5,43; 7,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,87; 5,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,21</t>
+          <t>1,92; 3,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,86; 6,03</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,06</t>
+          <t>4,92; 6,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,91; 4,93</t>
+          <t>3,92; 4,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,83</t>
+          <t>1,94; 2,84</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con dos o más personas por habitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10881</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21735</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24849</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21871</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22923</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11089</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18455</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43606</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47773</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11933</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5090; 20628</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13522; 32090</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16774; 36637</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>327; 2004</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2844; 16396</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14047; 32454</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15445; 33984</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4339; 30946</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10839; 30354</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31775; 57343</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34876; 65213</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5155; 33812</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27703</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34814</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25648</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40658</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28340</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35058</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15893</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>68361</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63514</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>69872</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41541</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18229; 38313</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25547; 48701</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24394; 47794</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15159; 45367</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28957; 52373</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19367; 40679</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23267; 48314</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10532; 26570</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52640; 84902</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48798; 80822</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53916; 86979</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28661; 64235</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23966</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11599</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5304</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13924</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22666</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15150</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13897</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13443</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46632</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26749</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19201</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27367</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14788; 35806</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5899; 19117</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1825; 11795</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7147; 24135</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14477; 33148</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8118; 25545</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7799; 22976</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7446; 23003</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34186; 62102</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17516; 38656</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12111; 28380</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18157; 39345</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8536</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15419</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29314</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13295</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13220</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20694</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3742</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21832</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28640</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50008</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3379; 17811</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9273; 24914</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20214; 41951</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7105; 22731</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7029; 21626</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12703; 30844</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1022; 9623</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12636; 32415</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19457; 40080</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>36198; 65672</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1274; 10130</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6823</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8149</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5867</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10731</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7149</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17554</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21527</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13016</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2701; 14131</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4022; 15374</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2668; 12566</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5670; 19567</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7501; 21215</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3427; 13718</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>483; 9737</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9787; 27053</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13945; 32040</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7128; 21349</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>554; 10892</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5128</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5452</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8875</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10669</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13493</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15797</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11044</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1053; 12760</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1969; 12249</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>963; 7965</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2497; 10566</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4075; 16083</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5736; 18410</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6513</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2339; 11355</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7711; 22327</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9195; 25133</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1844; 10431</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6110; 18192</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31361</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30828</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20351</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24246</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>54350</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63690</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26265</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28794</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>85711</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>94518</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>46616</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>53040</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21741; 45027</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20866; 43413</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12894; 32461</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15687; 33984</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41599; 72960</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>49523; 81104</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17432; 38716</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13364; 44558</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>66954; 106467</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>77068; 117413</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>34301; 61814</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>33479; 71314</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43418</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>34318</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>21687</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7408</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>42910</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>53381</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>32566</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>86329</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>87698</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>54252</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>17261</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31888; 57342</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>24098; 47336</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14409; 34107</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1825; 17021</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>30302; 57588</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>40153; 69774</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>23242; 45341</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6069; 16525</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>68079; 104756</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>70937; 108746</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>39995; 70358</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>9183; 27175</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>157307</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>162350</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>145123</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>77848</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>201060</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>219699</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>160315</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>90986</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>358366</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>382049</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>305438</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>168834</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>132020; 183004</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>140369; 193221</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>122364; 171312</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>56636; 105425</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>174184; 232663</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>192329; 250007</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>136608; 188378</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>70590; 114945</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>322844; 400050</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>342485; 421320</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>270698; 340004</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>137769; 201908</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>